--- a/leetcode-notes/review_list.xlsx
+++ b/leetcode-notes/review_list.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tao Victor Sun\Desktop\leetcode-notes\leetcode-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2049A45E-9F06-4B27-9EF3-104D663C880A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B92AE6A-6AC8-46D6-9CBB-82BBEDCDDCA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32220" yWindow="1560" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>leetcode</t>
   </si>
@@ -55,6 +56,33 @@
   </si>
   <si>
     <t>KMP string matching</t>
+  </si>
+  <si>
+    <t>merge sort</t>
+  </si>
+  <si>
+    <t>quick sort / quick select</t>
+  </si>
+  <si>
+    <t>rainbow sort</t>
+  </si>
+  <si>
+    <t>alternate positive and negative</t>
+  </si>
+  <si>
+    <t>recommanded merge sort implementation</t>
+  </si>
+  <si>
+    <t>reorder chars and numbers</t>
+  </si>
+  <si>
+    <t>birds flying back to nests</t>
+  </si>
+  <si>
+    <t>count smaller element at right</t>
+  </si>
+  <si>
+    <t>merge sort with 3 stacks</t>
   </si>
 </sst>
 </file>
@@ -70,12 +98,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,8 +130,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,14 +423,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="31.88671875" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -478,4 +529,70 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCE5671-FFEA-4274-AD83-E436B381C228}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>